--- a/parser/interface/tests/26 Театр.xlsx
+++ b/parser/interface/tests/26 Театр.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88BD2EE-AB28-4B88-94C0-8A8CFF3C1EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Театр 19 (21шт)" sheetId="4" r:id="rId1"/>
@@ -12,17 +13,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Театр 19 (21шт)'!$A$1:$AJ$77</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="251">
   <si>
     <t>ОКПД2</t>
   </si>
@@ -1014,14 +1023,17 @@
   <si>
     <t>https://www.bigtv.ru/product/splitter-dlya-dmx-involight-dmxs4-588479/</t>
   </si>
+  <si>
+    <t>Кабель-переходник для аудиотехники тип 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1154,7 +1166,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1178,7 +1190,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,7 +1208,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,7 +1240,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,17 +1298,32 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1308,34 +1335,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2 2 2 2" xfId="3"/>
+    <cellStyle name="Обычный 2 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="11">
@@ -1701,11 +1713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1843,19 +1855,19 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -1878,22 +1890,22 @@
         <f>G2</f>
         <v>487.92</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="50">
         <f>ROUND(_xlfn.STDEV.S(K2:K4),2)</f>
         <v>59.78</v>
       </c>
-      <c r="M2" s="55">
+      <c r="M2" s="51">
         <f>ROUND(STDEV(K2:K4)*100/AVERAGE(K2:K4),2)</f>
         <v>10.75</v>
       </c>
-      <c r="N2" s="56">
+      <c r="N2" s="52">
         <f>ROUND(AVERAGE(K2:K4),2)</f>
         <v>555.97</v>
       </c>
-      <c r="O2" s="54">
+      <c r="O2" s="50">
         <v>513.04</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="53">
         <f>IFERROR(ROUND(N2/O2-1,4),"")</f>
         <v>8.3699999999999997E-2</v>
       </c>
@@ -1967,11 +1979,11 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="12" t="s">
         <v>28</v>
       </c>
@@ -1991,11 +2003,11 @@
         <f>G3</f>
         <v>600</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="53"/>
       <c r="Q3" s="34" t="s">
         <v>30</v>
       </c>
@@ -2069,11 +2081,11 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="12" t="s">
         <v>32</v>
       </c>
@@ -2093,11 +2105,11 @@
         <f>G4</f>
         <v>580</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="34" t="s">
         <v>33</v>
       </c>
@@ -2171,19 +2183,19 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -2204,22 +2216,22 @@
         <f>G5</f>
         <v>950.22</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="50">
         <f>ROUND(_xlfn.STDEV.S(K5:K8),2)</f>
         <v>133.11000000000001</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="51">
         <f>ROUND(STDEV(K5:K8)*100/AVERAGE(K5:K8),2)</f>
         <v>17.73</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="52">
         <f>ROUND(AVERAGE(K5:K8),2)</f>
         <v>750.56</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="50">
         <v>823.33</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="53">
         <f>IFERROR(ROUND(N5/O5-1,4),"")</f>
         <v>-8.8400000000000006E-2</v>
       </c>
@@ -2288,11 +2300,11 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="12" t="s">
         <v>216</v>
       </c>
@@ -2312,11 +2324,11 @@
         <f t="shared" ref="K6:K9" si="18">G6</f>
         <v>684</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="34" t="s">
         <v>41</v>
       </c>
@@ -2390,11 +2402,11 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="59"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="12" t="s">
         <v>217</v>
       </c>
@@ -2414,11 +2426,11 @@
         <f t="shared" si="18"/>
         <v>684</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="53"/>
       <c r="Q7" s="34" t="s">
         <v>30</v>
       </c>
@@ -2492,11 +2504,11 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="59"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="12" t="s">
         <v>219</v>
       </c>
@@ -2516,11 +2528,11 @@
         <f t="shared" si="18"/>
         <v>684</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="34" t="s">
         <v>33</v>
       </c>
@@ -2594,19 +2606,19 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -2628,22 +2640,22 @@
         <f t="shared" si="18"/>
         <v>2160</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="50">
         <f>ROUND(_xlfn.STDEV.S(K9:K12),2)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="51">
         <f>ROUND(STDEV(K9:K12)*100/AVERAGE(K9:K12),2)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="52">
         <f>ROUND(AVERAGE(K9:K12),2)</f>
         <v>2160</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="50">
         <v>1999.95</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="53">
         <f>IFERROR(ROUND(N9/O9-1,4),"")</f>
         <v>0.08</v>
       </c>
@@ -2720,11 +2732,11 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="59"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="12"/>
       <c r="G10" s="35"/>
       <c r="H10" s="39"/>
@@ -2733,11 +2745,11 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="53"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="15"/>
       <c r="S10" s="36"/>
@@ -2800,11 +2812,11 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="59"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="12" t="s">
         <v>49</v>
       </c>
@@ -2824,11 +2836,11 @@
         <f t="shared" ref="K11:K17" si="21">G11</f>
         <v>2160</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="53"/>
       <c r="Q11" s="33" t="s">
         <v>50</v>
       </c>
@@ -2902,11 +2914,11 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="59"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="12" t="s">
         <v>32</v>
       </c>
@@ -2926,11 +2938,11 @@
         <f t="shared" si="21"/>
         <v>2160</v>
       </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="53"/>
       <c r="Q12" s="34" t="s">
         <v>33</v>
       </c>
@@ -3004,19 +3016,19 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -3038,22 +3050,22 @@
         <f t="shared" si="21"/>
         <v>90571</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="50">
         <f>ROUND(_xlfn.STDEV.S(K13:K15),2)</f>
         <v>7205.61</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="51">
         <f>ROUND(STDEV(K13:K15)*100/AVERAGE(K13:K15),2)</f>
         <v>8.67</v>
       </c>
-      <c r="N13" s="56">
+      <c r="N13" s="52">
         <f>ROUND(AVERAGE(K13:K15),2)</f>
         <v>83127.67</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="50">
         <v>98492</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="53">
         <f>IFERROR(ROUND(N13/O13-1,4),"")</f>
         <v>-0.156</v>
       </c>
@@ -3130,11 +3142,11 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="12" t="s">
         <v>221</v>
       </c>
@@ -3154,11 +3166,11 @@
         <f t="shared" si="21"/>
         <v>82626</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="53"/>
       <c r="Q14" s="33" t="s">
         <v>50</v>
       </c>
@@ -3232,11 +3244,11 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="59"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="12" t="s">
         <v>219</v>
       </c>
@@ -3256,11 +3268,11 @@
         <f t="shared" si="21"/>
         <v>76186</v>
       </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="53"/>
       <c r="Q15" s="34" t="s">
         <v>33</v>
       </c>
@@ -3334,19 +3346,19 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -3369,22 +3381,22 @@
         <f t="shared" si="21"/>
         <v>34846.18</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="50">
         <f>ROUND(_xlfn.STDEV.S(K16:K19),2)</f>
         <v>8974.23</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="51">
         <f>ROUND(STDEV(K16:K19)*100/AVERAGE(K16:K19),2)</f>
         <v>19.850000000000001</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="52">
         <f>ROUND(AVERAGE(K16:K19),2)</f>
         <v>45208.73</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="50">
         <v>51748.87</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16" s="53">
         <f>IFERROR(ROUND(N16/O16-1,4),"")</f>
         <v>-0.12640000000000001</v>
       </c>
@@ -3459,11 +3471,11 @@
       </c>
     </row>
     <row r="17" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="12" t="s">
         <v>58</v>
       </c>
@@ -3483,11 +3495,11 @@
         <f t="shared" si="21"/>
         <v>50390</v>
       </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="53"/>
       <c r="Q17" s="34" t="s">
         <v>59</v>
       </c>
@@ -3561,11 +3573,11 @@
       </c>
     </row>
     <row r="18" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="12" t="s">
         <v>28</v>
       </c>
@@ -3582,11 +3594,11 @@
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="34" t="s">
         <v>30</v>
       </c>
@@ -3658,11 +3670,11 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="12" t="s">
         <v>32</v>
       </c>
@@ -3682,11 +3694,11 @@
         <f t="shared" ref="K19:K20" si="23">G19</f>
         <v>50390</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="53"/>
       <c r="Q19" s="34" t="s">
         <v>33</v>
       </c>
@@ -3760,19 +3772,19 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -3795,22 +3807,22 @@
         <f t="shared" si="23"/>
         <v>12595.89</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="50">
         <f>ROUND(_xlfn.STDEV.S(K20:K23),2)</f>
         <v>804.48</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="51">
         <f>ROUND(STDEV(K20:K23)*100/AVERAGE(K20:K23),2)</f>
         <v>6.85</v>
       </c>
-      <c r="N20" s="56">
+      <c r="N20" s="52">
         <f>ROUND(AVERAGE(K20:K23),2)</f>
         <v>11738.97</v>
       </c>
-      <c r="O20" s="54">
+      <c r="O20" s="50">
         <v>15634.96</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="53">
         <f>IFERROR(ROUND(N20/O20-1,4),"")</f>
         <v>-0.2492</v>
       </c>
@@ -3885,11 +3897,11 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="12" t="s">
         <v>49</v>
       </c>
@@ -3909,11 +3921,11 @@
         <f t="shared" ref="K21:K29" si="25">G21</f>
         <v>10670</v>
       </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="53"/>
       <c r="Q21" s="33" t="s">
         <v>50</v>
       </c>
@@ -3987,11 +3999,11 @@
       </c>
     </row>
     <row r="22" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="12" t="s">
         <v>82</v>
       </c>
@@ -4011,11 +4023,11 @@
         <f t="shared" si="25"/>
         <v>11700</v>
       </c>
-      <c r="L22" s="54"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="53"/>
       <c r="Q22" s="34" t="s">
         <v>83</v>
       </c>
@@ -4089,11 +4101,11 @@
       </c>
     </row>
     <row r="23" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="59"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="12" t="s">
         <v>32</v>
       </c>
@@ -4113,11 +4125,11 @@
         <f t="shared" si="25"/>
         <v>11990</v>
       </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="53"/>
       <c r="Q23" s="34" t="s">
         <v>33</v>
       </c>
@@ -4191,19 +4203,19 @@
       </c>
     </row>
     <row r="24" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -4225,22 +4237,22 @@
         <f t="shared" si="25"/>
         <v>19092.150000000001</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="50">
         <f>ROUND(_xlfn.STDEV.S(K24:K26),2)</f>
         <v>6496.73</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="51">
         <f>ROUND(STDEV(K24:K26)*100/AVERAGE(K24:K26),2)</f>
         <v>27.27</v>
       </c>
-      <c r="N24" s="56">
+      <c r="N24" s="52">
         <f>ROUND(AVERAGE(K24:K26),2)</f>
         <v>23823.72</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24" s="50">
         <v>26439.5</v>
       </c>
-      <c r="P24" s="50">
+      <c r="P24" s="53">
         <f>IFERROR(ROUND(N24/O24-1,4),"")</f>
         <v>-9.8900000000000002E-2</v>
       </c>
@@ -4317,11 +4329,11 @@
       </c>
     </row>
     <row r="25" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="12" t="s">
         <v>221</v>
       </c>
@@ -4341,11 +4353,11 @@
         <f t="shared" si="25"/>
         <v>21148</v>
       </c>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="53"/>
       <c r="Q25" s="33" t="s">
         <v>50</v>
       </c>
@@ -4419,11 +4431,11 @@
       </c>
     </row>
     <row r="26" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="12" t="s">
         <v>219</v>
       </c>
@@ -4443,11 +4455,11 @@
         <f t="shared" si="25"/>
         <v>31231</v>
       </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="53"/>
       <c r="Q26" s="34" t="s">
         <v>33</v>
       </c>
@@ -4521,19 +4533,19 @@
       </c>
     </row>
     <row r="27" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="12" t="s">
@@ -4555,22 +4567,22 @@
         <f t="shared" si="25"/>
         <v>11560</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="50">
         <f>ROUND(_xlfn.STDEV.S(K27:K30),2)</f>
         <v>1678.48</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M27" s="51">
         <f>ROUND(STDEV(K27:K30)*100/AVERAGE(K27:K30),2)</f>
         <v>17.43</v>
       </c>
-      <c r="N27" s="56">
+      <c r="N27" s="52">
         <f>ROUND(AVERAGE(K27:K30),2)</f>
         <v>9628.36</v>
       </c>
-      <c r="O27" s="54">
+      <c r="O27" s="50">
         <v>10480.16</v>
       </c>
-      <c r="P27" s="50">
+      <c r="P27" s="53">
         <f>IFERROR(ROUND(N27/O27-1,4),"")</f>
         <v>-8.1299999999999997E-2</v>
       </c>
@@ -4647,11 +4659,11 @@
       </c>
     </row>
     <row r="28" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="59"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="12" t="s">
         <v>102</v>
       </c>
@@ -4671,11 +4683,11 @@
         <f t="shared" si="25"/>
         <v>8525.09</v>
       </c>
-      <c r="L28" s="54"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="53"/>
       <c r="Q28" s="33" t="s">
         <v>103</v>
       </c>
@@ -4749,11 +4761,11 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="59"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="12" t="s">
         <v>82</v>
       </c>
@@ -4773,11 +4785,11 @@
         <f t="shared" si="25"/>
         <v>8800</v>
       </c>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="53"/>
       <c r="Q29" s="34" t="s">
         <v>83</v>
       </c>
@@ -4851,11 +4863,11 @@
       </c>
     </row>
     <row r="30" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="59"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="12" t="s">
         <v>107</v>
       </c>
@@ -4872,11 +4884,11 @@
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="53"/>
       <c r="Q30" s="34" t="s">
         <v>33</v>
       </c>
@@ -4948,19 +4960,19 @@
       </c>
     </row>
     <row r="31" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -4983,22 +4995,22 @@
         <f t="shared" ref="K31:K34" si="26">G31</f>
         <v>25175.23</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31" s="50">
         <f>ROUND(_xlfn.STDEV.S(K31:K33),2)</f>
         <v>2400.23</v>
       </c>
-      <c r="M31" s="55">
+      <c r="M31" s="51">
         <f>ROUND(STDEV(K31:K33)*100/AVERAGE(K31:K33),2)</f>
         <v>9.4</v>
       </c>
-      <c r="N31" s="56">
+      <c r="N31" s="52">
         <f>ROUND(AVERAGE(K31:K33),2)</f>
         <v>25538.74</v>
       </c>
-      <c r="O31" s="54">
+      <c r="O31" s="50">
         <v>36487.839999999997</v>
       </c>
-      <c r="P31" s="50">
+      <c r="P31" s="53">
         <f>IFERROR(ROUND(N31/O31-1,4),"")</f>
         <v>-0.30009999999999998</v>
       </c>
@@ -5073,11 +5085,11 @@
       </c>
     </row>
     <row r="32" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="59"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="12" t="s">
         <v>113</v>
       </c>
@@ -5097,11 +5109,11 @@
         <f t="shared" si="26"/>
         <v>28100</v>
       </c>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="53"/>
       <c r="Q32" s="34" t="s">
         <v>83</v>
       </c>
@@ -5175,11 +5187,11 @@
       </c>
     </row>
     <row r="33" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="59"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="12" t="s">
         <v>32</v>
       </c>
@@ -5199,11 +5211,11 @@
         <f t="shared" si="26"/>
         <v>23341</v>
       </c>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="53"/>
       <c r="Q33" s="34" t="s">
         <v>33</v>
       </c>
@@ -5277,19 +5289,19 @@
       </c>
     </row>
     <row r="34" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -5312,22 +5324,22 @@
         <f t="shared" si="26"/>
         <v>31464.17</v>
       </c>
-      <c r="L34" s="54">
+      <c r="L34" s="50">
         <f>ROUND(_xlfn.STDEV.S(K34:K37),2)</f>
         <v>3717.31</v>
       </c>
-      <c r="M34" s="55">
+      <c r="M34" s="51">
         <f>ROUND(STDEV(K34:K37)*100/AVERAGE(K34:K37),2)</f>
         <v>11.37</v>
       </c>
-      <c r="N34" s="56">
+      <c r="N34" s="52">
         <f>ROUND(AVERAGE(K34:K37),2)</f>
         <v>32701.54</v>
       </c>
-      <c r="O34" s="54">
+      <c r="O34" s="50">
         <v>40164.51</v>
       </c>
-      <c r="P34" s="50">
+      <c r="P34" s="53">
         <f>IFERROR(ROUND(N34/O34-1,4),"")</f>
         <v>-0.18579999999999999</v>
       </c>
@@ -5402,11 +5414,11 @@
       </c>
     </row>
     <row r="35" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="59"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="12" t="s">
         <v>40</v>
       </c>
@@ -5426,11 +5438,11 @@
         <f t="shared" ref="K35:K37" si="29">G35</f>
         <v>27990</v>
       </c>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="53"/>
       <c r="Q35" s="34" t="s">
         <v>41</v>
       </c>
@@ -5504,11 +5516,11 @@
       </c>
     </row>
     <row r="36" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="59"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="12" t="s">
         <v>32</v>
       </c>
@@ -5528,11 +5540,11 @@
         <f t="shared" si="29"/>
         <v>35552</v>
       </c>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="53"/>
       <c r="Q36" s="34" t="s">
         <v>33</v>
       </c>
@@ -5606,11 +5618,11 @@
       </c>
     </row>
     <row r="37" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="59"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="12" t="s">
         <v>113</v>
       </c>
@@ -5630,11 +5642,11 @@
         <f t="shared" si="29"/>
         <v>35800</v>
       </c>
-      <c r="L37" s="54"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="53"/>
       <c r="Q37" s="34" t="s">
         <v>83</v>
       </c>
@@ -5708,19 +5720,19 @@
       </c>
     </row>
     <row r="38" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F38" s="12" t="s">
@@ -5740,22 +5752,22 @@
         <v>13</v>
       </c>
       <c r="K38" s="46"/>
-      <c r="L38" s="54">
+      <c r="L38" s="50">
         <f>ROUND(_xlfn.STDEV.S(K38:K41),2)</f>
         <v>6071.11</v>
       </c>
-      <c r="M38" s="55">
+      <c r="M38" s="51">
         <f>ROUND(STDEV(K38:K41)*100/AVERAGE(K38:K41),2)</f>
         <v>15.86</v>
       </c>
-      <c r="N38" s="56">
+      <c r="N38" s="52">
         <f>ROUND(AVERAGE(K38:K41),2)</f>
         <v>38289.33</v>
       </c>
-      <c r="O38" s="54">
+      <c r="O38" s="50">
         <v>54238.76</v>
       </c>
-      <c r="P38" s="50">
+      <c r="P38" s="53">
         <f>IFERROR(ROUND(N38/O38-1,4),"")</f>
         <v>-0.29409999999999997</v>
       </c>
@@ -5830,11 +5842,11 @@
       </c>
     </row>
     <row r="39" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="59"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="12" t="s">
         <v>130</v>
       </c>
@@ -5854,11 +5866,11 @@
         <f t="shared" ref="K39:K50" si="31">G39</f>
         <v>36690</v>
       </c>
-      <c r="L39" s="54"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="53"/>
       <c r="Q39" s="34" t="s">
         <v>131</v>
       </c>
@@ -5932,11 +5944,11 @@
       </c>
     </row>
     <row r="40" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="59"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="12" t="s">
         <v>107</v>
       </c>
@@ -5956,11 +5968,11 @@
         <f t="shared" si="31"/>
         <v>33178</v>
       </c>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="53"/>
       <c r="Q40" s="34" t="s">
         <v>33</v>
       </c>
@@ -6034,11 +6046,11 @@
       </c>
     </row>
     <row r="41" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="59"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="12" t="s">
         <v>82</v>
       </c>
@@ -6058,11 +6070,11 @@
         <f t="shared" si="31"/>
         <v>45000</v>
       </c>
-      <c r="L41" s="54"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="53"/>
       <c r="Q41" s="34" t="s">
         <v>83</v>
       </c>
@@ -6136,19 +6148,19 @@
       </c>
     </row>
     <row r="42" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="12" t="s">
@@ -6170,22 +6182,22 @@
         <f t="shared" si="31"/>
         <v>35028</v>
       </c>
-      <c r="L42" s="54">
+      <c r="L42" s="50">
         <f>ROUND(_xlfn.STDEV.S(K42:K45),2)</f>
         <v>6274.96</v>
       </c>
-      <c r="M42" s="55">
+      <c r="M42" s="51">
         <f>ROUND(STDEV(K42:K45)*100/AVERAGE(K42:K45),2)</f>
         <v>18.34</v>
       </c>
-      <c r="N42" s="56">
+      <c r="N42" s="52">
         <f>ROUND(AVERAGE(K42:K45),2)</f>
         <v>34207</v>
       </c>
-      <c r="O42" s="54">
+      <c r="O42" s="50">
         <v>38695.01</v>
       </c>
-      <c r="P42" s="50">
+      <c r="P42" s="53">
         <f>IFERROR(ROUND(N42/O42-1,4),"")</f>
         <v>-0.11600000000000001</v>
       </c>
@@ -6262,11 +6274,11 @@
       </c>
     </row>
     <row r="43" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="59"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="12" t="s">
         <v>130</v>
       </c>
@@ -6286,11 +6298,11 @@
         <f t="shared" si="31"/>
         <v>25800</v>
       </c>
-      <c r="L43" s="54"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="53"/>
       <c r="Q43" s="34" t="s">
         <v>131</v>
       </c>
@@ -6364,11 +6376,11 @@
       </c>
     </row>
     <row r="44" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="59"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="12" t="s">
         <v>32</v>
       </c>
@@ -6388,11 +6400,11 @@
         <f t="shared" si="31"/>
         <v>35000</v>
       </c>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="53"/>
       <c r="Q44" s="34" t="s">
         <v>33</v>
       </c>
@@ -6466,11 +6478,11 @@
       </c>
     </row>
     <row r="45" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="59"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="12" t="s">
         <v>113</v>
       </c>
@@ -6490,11 +6502,11 @@
         <f t="shared" si="31"/>
         <v>41000</v>
       </c>
-      <c r="L45" s="54"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="53"/>
       <c r="Q45" s="34" t="s">
         <v>83</v>
       </c>
@@ -6568,19 +6580,19 @@
       </c>
     </row>
     <row r="46" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="12" t="s">
@@ -6602,22 +6614,22 @@
         <f t="shared" si="31"/>
         <v>51330</v>
       </c>
-      <c r="L46" s="54">
+      <c r="L46" s="50">
         <f>ROUND(_xlfn.STDEV.S(K46:K49),2)</f>
         <v>1230.05</v>
       </c>
-      <c r="M46" s="55">
+      <c r="M46" s="51">
         <f>ROUND(STDEV(K46:K49)*100/AVERAGE(K46:K49),2)</f>
         <v>2.39</v>
       </c>
-      <c r="N46" s="56">
+      <c r="N46" s="52">
         <f>ROUND(AVERAGE(K46:K49),2)</f>
         <v>51551.75</v>
       </c>
-      <c r="O46" s="54">
+      <c r="O46" s="50">
         <v>64428.69</v>
       </c>
-      <c r="P46" s="50">
+      <c r="P46" s="53">
         <f>IFERROR(ROUND(N46/O46-1,4),"")</f>
         <v>-0.19989999999999999</v>
       </c>
@@ -6694,11 +6706,11 @@
       </c>
     </row>
     <row r="47" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="59"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="12" t="s">
         <v>138</v>
       </c>
@@ -6718,11 +6730,11 @@
         <f t="shared" si="31"/>
         <v>53247</v>
       </c>
-      <c r="L47" s="54"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="53"/>
       <c r="Q47" s="33" t="s">
         <v>139</v>
       </c>
@@ -6796,11 +6808,11 @@
       </c>
     </row>
     <row r="48" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="59"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="12" t="s">
         <v>32</v>
       </c>
@@ -6820,11 +6832,11 @@
         <f t="shared" si="31"/>
         <v>51330</v>
       </c>
-      <c r="L48" s="54"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="53"/>
       <c r="Q48" s="34" t="s">
         <v>33</v>
       </c>
@@ -6898,11 +6910,11 @@
       </c>
     </row>
     <row r="49" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="59"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="12" t="s">
         <v>82</v>
       </c>
@@ -6922,11 +6934,11 @@
         <f t="shared" si="31"/>
         <v>50300</v>
       </c>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="53"/>
       <c r="Q49" s="34" t="s">
         <v>83</v>
       </c>
@@ -7000,19 +7012,19 @@
       </c>
     </row>
     <row r="50" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="12" t="s">
@@ -7034,22 +7046,22 @@
         <f t="shared" si="31"/>
         <v>53786</v>
       </c>
-      <c r="L50" s="54">
+      <c r="L50" s="50">
         <f>ROUND(_xlfn.STDEV.S(K50:K53),2)</f>
         <v>4419.01</v>
       </c>
-      <c r="M50" s="55">
+      <c r="M50" s="51">
         <f>ROUND(STDEV(K50:K53)*100/AVERAGE(K50:K53),2)</f>
         <v>8.15</v>
       </c>
-      <c r="N50" s="56">
+      <c r="N50" s="52">
         <f>ROUND(AVERAGE(K50:K53),2)</f>
         <v>54192</v>
       </c>
-      <c r="O50" s="54">
+      <c r="O50" s="50">
         <v>71908.490000000005</v>
       </c>
-      <c r="P50" s="50">
+      <c r="P50" s="53">
         <f>IFERROR(ROUND(N50/O50-1,4),"")</f>
         <v>-0.24640000000000001</v>
       </c>
@@ -7126,11 +7138,11 @@
       </c>
     </row>
     <row r="51" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="59"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="12" t="s">
         <v>153</v>
       </c>
@@ -7147,11 +7159,11 @@
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="35"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="53"/>
       <c r="Q51" s="34" t="s">
         <v>154</v>
       </c>
@@ -7223,11 +7235,11 @@
       </c>
     </row>
     <row r="52" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="59"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="12" t="s">
         <v>32</v>
       </c>
@@ -7247,11 +7259,11 @@
         <f t="shared" ref="K52:K60" si="32">G52</f>
         <v>49990</v>
       </c>
-      <c r="L52" s="54"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="53"/>
       <c r="Q52" s="34" t="s">
         <v>33</v>
       </c>
@@ -7325,11 +7337,11 @@
       </c>
     </row>
     <row r="53" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="59"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="12" t="s">
         <v>82</v>
       </c>
@@ -7349,11 +7361,11 @@
         <f t="shared" si="32"/>
         <v>58800</v>
       </c>
-      <c r="L53" s="54"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="53"/>
       <c r="Q53" s="34" t="s">
         <v>83</v>
       </c>
@@ -7427,19 +7439,19 @@
       </c>
     </row>
     <row r="54" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="E54" s="59" t="s">
+      <c r="E54" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="12" t="s">
@@ -7461,22 +7473,22 @@
         <f t="shared" si="32"/>
         <v>500761</v>
       </c>
-      <c r="L54" s="54">
+      <c r="L54" s="50">
         <f>ROUND(_xlfn.STDEV.S(K54:K56),2)</f>
         <v>72394.53</v>
       </c>
-      <c r="M54" s="55">
+      <c r="M54" s="51">
         <f>ROUND(STDEV(K54:K56)*100/AVERAGE(K54:K56),2)</f>
         <v>15.77</v>
       </c>
-      <c r="N54" s="56">
+      <c r="N54" s="52">
         <f>ROUND(AVERAGE(K54:K56),2)</f>
         <v>458964</v>
       </c>
-      <c r="O54" s="54">
+      <c r="O54" s="50">
         <v>551490.67000000004</v>
       </c>
-      <c r="P54" s="50">
+      <c r="P54" s="53">
         <f>IFERROR(ROUND(N54/O54-1,4),"")</f>
         <v>-0.1678</v>
       </c>
@@ -7553,11 +7565,11 @@
       </c>
     </row>
     <row r="55" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="59"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="12" t="s">
         <v>221</v>
       </c>
@@ -7577,11 +7589,11 @@
         <f t="shared" si="32"/>
         <v>375370</v>
       </c>
-      <c r="L55" s="54"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="53"/>
       <c r="Q55" s="33" t="s">
         <v>50</v>
       </c>
@@ -7655,11 +7667,11 @@
       </c>
     </row>
     <row r="56" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="59"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="47"/>
       <c r="F56" s="12" t="s">
         <v>219</v>
       </c>
@@ -7679,11 +7691,11 @@
         <f t="shared" si="32"/>
         <v>500761</v>
       </c>
-      <c r="L56" s="54"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="53"/>
       <c r="Q56" s="34" t="s">
         <v>33</v>
       </c>
@@ -7757,19 +7769,19 @@
       </c>
     </row>
     <row r="57" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F57" s="12" t="s">
@@ -7792,22 +7804,22 @@
         <f t="shared" si="32"/>
         <v>165780</v>
       </c>
-      <c r="L57" s="54">
+      <c r="L57" s="50">
         <f>ROUND(_xlfn.STDEV.S(K57:K59),2)</f>
         <v>8647.7999999999993</v>
       </c>
-      <c r="M57" s="55">
+      <c r="M57" s="51">
         <f>ROUND(STDEV(K57:K59)*100/AVERAGE(K57:K59),2)</f>
         <v>4.92</v>
       </c>
-      <c r="N57" s="56">
+      <c r="N57" s="52">
         <f>ROUND(AVERAGE(K57:K59),2)</f>
         <v>175723.33</v>
       </c>
-      <c r="O57" s="54">
+      <c r="O57" s="50">
         <v>206098.81</v>
       </c>
-      <c r="P57" s="50">
+      <c r="P57" s="53">
         <f>IFERROR(ROUND(N57/O57-1,4),"")</f>
         <v>-0.1474</v>
       </c>
@@ -7882,11 +7894,11 @@
       </c>
     </row>
     <row r="58" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="59"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="47"/>
       <c r="F58" s="12" t="s">
         <v>40</v>
       </c>
@@ -7906,11 +7918,11 @@
         <f t="shared" si="32"/>
         <v>181490</v>
       </c>
-      <c r="L58" s="54"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="53"/>
       <c r="Q58" s="34" t="s">
         <v>41</v>
       </c>
@@ -7984,11 +7996,11 @@
       </c>
     </row>
     <row r="59" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="59"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="12" t="s">
         <v>32</v>
       </c>
@@ -8008,11 +8020,11 @@
         <f>G59</f>
         <v>179900</v>
       </c>
-      <c r="L59" s="54"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="53"/>
       <c r="Q59" s="34" t="s">
         <v>33</v>
       </c>
@@ -8086,19 +8098,19 @@
       </c>
     </row>
     <row r="60" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="60" t="s">
+      <c r="D60" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="E60" s="59" t="s">
+      <c r="E60" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F60" s="12" t="s">
@@ -8121,22 +8133,22 @@
         <f t="shared" si="32"/>
         <v>407968</v>
       </c>
-      <c r="L60" s="54">
+      <c r="L60" s="50">
         <f>ROUND(_xlfn.STDEV.S(K60:K63),2)</f>
         <v>87464.19</v>
       </c>
-      <c r="M60" s="55">
+      <c r="M60" s="51">
         <f>ROUND(STDEV(K60:K63)*100/AVERAGE(K60:K63),2)</f>
         <v>17.61</v>
       </c>
-      <c r="N60" s="56">
+      <c r="N60" s="52">
         <f>ROUND(AVERAGE(K60:K63),2)</f>
         <v>496686</v>
       </c>
-      <c r="O60" s="54">
+      <c r="O60" s="50">
         <v>488170.13</v>
       </c>
-      <c r="P60" s="50">
+      <c r="P60" s="53">
         <f t="shared" ref="P60:P67" si="34">IFERROR(ROUND(N60/O60-1,4),"")</f>
         <v>1.7399999999999999E-2</v>
       </c>
@@ -8211,13 +8223,13 @@
       </c>
     </row>
     <row r="61" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="59"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="12" t="s">
         <v>180</v>
       </c>
@@ -8234,11 +8246,11 @@
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="35"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="53"/>
       <c r="Q61" s="34" t="s">
         <v>181</v>
       </c>
@@ -8310,13 +8322,13 @@
       </c>
     </row>
     <row r="62" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="59"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="47"/>
       <c r="F62" s="12" t="s">
         <v>184</v>
       </c>
@@ -8336,11 +8348,11 @@
         <f t="shared" ref="K62:K64" si="36">G62</f>
         <v>499250</v>
       </c>
-      <c r="L62" s="54"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="53"/>
       <c r="Q62" s="34" t="s">
         <v>185</v>
       </c>
@@ -8414,13 +8426,13 @@
       </c>
     </row>
     <row r="63" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="59"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="12" t="s">
         <v>32</v>
       </c>
@@ -8440,11 +8452,11 @@
         <f t="shared" si="36"/>
         <v>582840</v>
       </c>
-      <c r="L63" s="54"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="53"/>
       <c r="Q63" s="34" t="s">
         <v>33</v>
       </c>
@@ -8518,19 +8530,19 @@
       </c>
     </row>
     <row r="64" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="58">
+      <c r="B64" s="55">
         <v>3</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="60" t="s">
+      <c r="D64" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="54" t="s">
         <v>22</v>
       </c>
       <c r="F64" s="12" t="s">
@@ -8552,22 +8564,22 @@
         <f t="shared" si="36"/>
         <v>3410</v>
       </c>
-      <c r="L64" s="54">
+      <c r="L64" s="50">
         <f>ROUND(_xlfn.STDEV.S(K64:K67),2)</f>
         <v>236.71</v>
       </c>
-      <c r="M64" s="55">
+      <c r="M64" s="51">
         <f>ROUND(STDEV(K64:K67)*100/AVERAGE(K64:K67),2)</f>
         <v>7.55</v>
       </c>
-      <c r="N64" s="56">
+      <c r="N64" s="52">
         <f>ROUND(AVERAGE(K64:K67),2)</f>
         <v>3136.67</v>
       </c>
-      <c r="O64" s="54">
+      <c r="O64" s="50">
         <v>4105.33</v>
       </c>
-      <c r="P64" s="50">
+      <c r="P64" s="53">
         <f t="shared" si="34"/>
         <v>-0.23599999999999999</v>
       </c>
@@ -8644,11 +8656,11 @@
       </c>
     </row>
     <row r="65" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="54"/>
       <c r="F65" s="12">
         <v>123</v>
       </c>
@@ -8662,11 +8674,11 @@
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="39"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="50" t="str">
+      <c r="L65" s="50"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="53" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8735,11 +8747,11 @@
       </c>
     </row>
     <row r="66" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="57"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="54"/>
       <c r="F66" s="12" t="s">
         <v>224</v>
       </c>
@@ -8759,11 +8771,11 @@
         <f t="shared" ref="K66:K77" si="39">G66</f>
         <v>3000</v>
       </c>
-      <c r="L66" s="54"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="50" t="str">
+      <c r="L66" s="50"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="53" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8840,11 +8852,11 @@
       </c>
     </row>
     <row r="67" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="57"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="54"/>
       <c r="F67" s="12" t="s">
         <v>220</v>
       </c>
@@ -8864,11 +8876,11 @@
         <f t="shared" si="39"/>
         <v>3000</v>
       </c>
-      <c r="L67" s="54"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="50" t="str">
+      <c r="L67" s="50"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="53" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8945,19 +8957,19 @@
       </c>
     </row>
     <row r="68" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="E68" s="51" t="s">
+      <c r="E68" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="12" t="s">
@@ -8979,22 +8991,22 @@
         <f t="shared" si="39"/>
         <v>17070</v>
       </c>
-      <c r="L68" s="49">
+      <c r="L68" s="59">
         <f>ROUND(_xlfn.STDEV.S(K68:K70),2)</f>
         <v>0</v>
       </c>
-      <c r="M68" s="47">
+      <c r="M68" s="60">
         <f>ROUND(STDEV(K68:K70)*100/AVERAGE(K68:K70),2)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="48">
+      <c r="N68" s="61">
         <f>ROUND(AVERAGE(K68:K70),2)</f>
         <v>17070</v>
       </c>
-      <c r="O68" s="49">
+      <c r="O68" s="59">
         <v>21679.67</v>
       </c>
-      <c r="P68" s="50">
+      <c r="P68" s="53">
         <f>IFERROR(ROUND(N68/O68-1,4),"")</f>
         <v>-0.21260000000000001</v>
       </c>
@@ -9071,11 +9083,11 @@
       </c>
     </row>
     <row r="69" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="51"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="12" t="s">
         <v>224</v>
       </c>
@@ -9095,11 +9107,11 @@
         <f t="shared" si="39"/>
         <v>17070</v>
       </c>
-      <c r="L69" s="49"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="50"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="53"/>
       <c r="Q69" s="34" t="s">
         <v>99</v>
       </c>
@@ -9173,11 +9185,11 @@
       </c>
     </row>
     <row r="70" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="51"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="12" t="s">
         <v>219</v>
       </c>
@@ -9197,11 +9209,11 @@
         <f t="shared" si="39"/>
         <v>17070</v>
       </c>
-      <c r="L70" s="49"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="50"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="53"/>
       <c r="Q70" s="34" t="s">
         <v>33</v>
       </c>
@@ -9275,19 +9287,19 @@
       </c>
     </row>
     <row r="71" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="51" t="s">
+      <c r="A71" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F71" s="12" t="s">
@@ -9309,22 +9321,22 @@
         <f t="shared" si="39"/>
         <v>27807</v>
       </c>
-      <c r="L71" s="49">
+      <c r="L71" s="59">
         <f>ROUND(_xlfn.STDEV.S(K71:K73),2)</f>
         <v>2290.85</v>
       </c>
-      <c r="M71" s="47">
+      <c r="M71" s="60">
         <f>ROUND(STDEV(K71:K73)*100/AVERAGE(K71:K73),2)</f>
         <v>8.92</v>
       </c>
-      <c r="N71" s="48">
+      <c r="N71" s="61">
         <f>ROUND(AVERAGE(K71:K73),2)</f>
         <v>25684.33</v>
       </c>
-      <c r="O71" s="49">
+      <c r="O71" s="59">
         <v>30499.41</v>
       </c>
-      <c r="P71" s="50">
+      <c r="P71" s="53">
         <f>IFERROR(ROUND(N71/O71-1,4),"")</f>
         <v>-0.15790000000000001</v>
       </c>
@@ -9401,11 +9413,11 @@
       </c>
     </row>
     <row r="72" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="51"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="12" t="s">
         <v>98</v>
       </c>
@@ -9425,11 +9437,11 @@
         <f t="shared" si="39"/>
         <v>25990</v>
       </c>
-      <c r="L72" s="49"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="50"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="53"/>
       <c r="Q72" s="34" t="s">
         <v>99</v>
       </c>
@@ -9503,11 +9515,11 @@
       </c>
     </row>
     <row r="73" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="51"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="12" t="s">
         <v>32</v>
       </c>
@@ -9527,11 +9539,11 @@
         <f t="shared" si="39"/>
         <v>23256</v>
       </c>
-      <c r="L73" s="49"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="50"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="59"/>
+      <c r="P73" s="53"/>
       <c r="Q73" s="34" t="s">
         <v>33</v>
       </c>
@@ -9605,19 +9617,19 @@
       </c>
     </row>
     <row r="74" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="53" t="s">
+      <c r="D74" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="E74" s="51" t="s">
+      <c r="E74" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F74" s="12" t="s">
@@ -9639,22 +9651,22 @@
         <f t="shared" si="39"/>
         <v>600</v>
       </c>
-      <c r="L74" s="49">
+      <c r="L74" s="59">
         <f>ROUND(_xlfn.STDEV.S(K74:K77),2)</f>
         <v>60.39</v>
       </c>
-      <c r="M74" s="47">
+      <c r="M74" s="60">
         <f>ROUND(STDEV(K74:K77)*100/AVERAGE(K74:K77),2)</f>
         <v>11.44</v>
       </c>
-      <c r="N74" s="48">
+      <c r="N74" s="61">
         <f>ROUND(AVERAGE(K74:K77),2)</f>
         <v>527.75</v>
       </c>
-      <c r="O74" s="49">
+      <c r="O74" s="59">
         <v>938.33</v>
       </c>
-      <c r="P74" s="50">
+      <c r="P74" s="53">
         <f t="shared" ref="P74:P77" si="50">IFERROR(ROUND(N74/O74-1,4),"")</f>
         <v>-0.43759999999999999</v>
       </c>
@@ -9731,11 +9743,11 @@
       </c>
     </row>
     <row r="75" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="51"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="56"/>
       <c r="F75" s="12" t="s">
         <v>225</v>
       </c>
@@ -9755,11 +9767,11 @@
         <f t="shared" si="39"/>
         <v>461</v>
       </c>
-      <c r="L75" s="49"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="50" t="str">
+      <c r="L75" s="59"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="53" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9836,11 +9848,11 @@
       </c>
     </row>
     <row r="76" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="51"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="56"/>
       <c r="F76" s="12" t="s">
         <v>224</v>
       </c>
@@ -9860,11 +9872,11 @@
         <f t="shared" si="39"/>
         <v>500</v>
       </c>
-      <c r="L76" s="49"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="50" t="str">
+      <c r="L76" s="59"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="59"/>
+      <c r="P76" s="53" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9941,11 +9953,11 @@
       </c>
     </row>
     <row r="77" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="51"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="56"/>
       <c r="F77" s="12" t="s">
         <v>219</v>
       </c>
@@ -9965,11 +9977,11 @@
         <f t="shared" si="39"/>
         <v>550</v>
       </c>
-      <c r="L77" s="49"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="50" t="str">
+      <c r="L77" s="59"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="59"/>
+      <c r="P77" s="53" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -10045,9 +10057,224 @@
         <v>$AA$77</v>
       </c>
     </row>
+    <row r="78" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="56"/>
+    </row>
+    <row r="80" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="56"/>
+    </row>
+    <row r="81" spans="3:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="56"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ77"/>
-  <mergeCells count="210">
+  <autoFilter ref="A1:AJ77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="211">
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="O74:O77"/>
+    <mergeCell ref="P74:P77"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="N71:N73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="M64:M67"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="O64:O67"/>
+    <mergeCell ref="P64:P67"/>
+    <mergeCell ref="M60:M63"/>
+    <mergeCell ref="N60:N63"/>
+    <mergeCell ref="O60:O63"/>
+    <mergeCell ref="P60:P63"/>
+    <mergeCell ref="L60:L63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="N57:N59"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="O50:O53"/>
+    <mergeCell ref="P50:P53"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="O38:O41"/>
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="P31:P33"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="O27:O30"/>
+    <mergeCell ref="P27:P30"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
@@ -10058,206 +10285,6 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="O27:O30"/>
-    <mergeCell ref="P27:P30"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="O42:O45"/>
-    <mergeCell ref="P42:P45"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="O38:O41"/>
-    <mergeCell ref="P38:P41"/>
-    <mergeCell ref="L38:L41"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="O50:O53"/>
-    <mergeCell ref="P50:P53"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="P46:P49"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="P57:P59"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="N54:N56"/>
-    <mergeCell ref="O54:O56"/>
-    <mergeCell ref="P54:P56"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="L64:L67"/>
-    <mergeCell ref="M64:M67"/>
-    <mergeCell ref="N64:N67"/>
-    <mergeCell ref="O64:O67"/>
-    <mergeCell ref="P64:P67"/>
-    <mergeCell ref="M60:M63"/>
-    <mergeCell ref="N60:N63"/>
-    <mergeCell ref="O60:O63"/>
-    <mergeCell ref="P60:P63"/>
-    <mergeCell ref="L60:L63"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:N70"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="P68:P70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="O74:O77"/>
-    <mergeCell ref="P74:P77"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="L74:L77"/>
   </mergeCells>
   <conditionalFormatting sqref="Q2:R8 F2:G8 F10:G1048576 Q10:R1048576 K2:K8 K10:K1048576">
     <cfRule type="expression" dxfId="10" priority="9">
@@ -10307,27 +10334,27 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S60" r:id="rId1"/>
-    <hyperlink ref="S4" r:id="rId2"/>
-    <hyperlink ref="S61" r:id="rId3"/>
-    <hyperlink ref="S66" r:id="rId4"/>
-    <hyperlink ref="S51" r:id="rId5"/>
-    <hyperlink ref="S2" r:id="rId6"/>
-    <hyperlink ref="S57" r:id="rId7"/>
-    <hyperlink ref="S31" r:id="rId8"/>
-    <hyperlink ref="S45" r:id="rId9"/>
-    <hyperlink ref="S29" r:id="rId10"/>
-    <hyperlink ref="S30" r:id="rId11"/>
-    <hyperlink ref="S20" r:id="rId12"/>
-    <hyperlink ref="S28" r:id="rId13"/>
-    <hyperlink ref="S27" r:id="rId14"/>
-    <hyperlink ref="S25" r:id="rId15"/>
-    <hyperlink ref="S24" r:id="rId16"/>
-    <hyperlink ref="S22" r:id="rId17"/>
-    <hyperlink ref="S72" r:id="rId18"/>
-    <hyperlink ref="S69" r:id="rId19"/>
-    <hyperlink ref="S70" r:id="rId20"/>
-    <hyperlink ref="S71" r:id="rId21"/>
+    <hyperlink ref="S60" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S61" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S66" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="S51" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S57" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="S31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S45" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="S29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="S30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="S20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="S28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="S27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="S25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="S24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="S22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="S72" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="S69" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="S70" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="S71" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
